--- a/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
+++ b/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\小金\Documents\github_ischool\SHSchool.CourseSelection\SHSchool.CourseSelection\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>選修課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -436,11 +440,12 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,31 +456,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -487,8 +495,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -500,6 +509,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
+++ b/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>鎖定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修課方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -442,10 +446,12 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="18.75" customWidth="1"/>
+    <col min="6" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -496,8 +505,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -510,6 +520,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
+++ b/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\小金\Documents\github_ischool\SHSchool.CourseSelection\SHSchool.CourseSelection\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual studio 專案\SelectCourseOriginal\SHSchool.CourseSelection\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA61F90-02BA-4669-BBD3-8902649B13DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="選課結果" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,13 +76,21 @@
   </si>
   <si>
     <t>修課方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證訊息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -143,7 +152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +161,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,73 +450,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="18.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -506,14 +532,16 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -521,9 +549,11 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
+++ b/SHSchool.CourseSelection/Resources/匯出選課結果樣板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual studio 專案\SelectCourseOriginal\SHSchool.CourseSelection\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyJob_Desktop\Github\SHSchool.CourseSelection2.0\SHSchool.CourseSelection\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA61F90-02BA-4669-BBD3-8902649B13DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="選課結果" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,13 +83,33 @@
   </si>
   <si>
     <t>驗證訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志願六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志願七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志願八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志願九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志願十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -450,28 +469,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="18.77734375" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="15" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="26.75" customWidth="1"/>
+    <col min="11" max="20" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,31 +514,46 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -534,8 +569,13 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -545,11 +585,16 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
